--- a/Payments_Refunds/outputs/refund_recon_20251216_141501/high_risk_refunds_REVIEW_IMMEDIATELY.xlsx
+++ b/Payments_Refunds/outputs/refund_recon_20251216_141501/high_risk_refunds_REVIEW_IMMEDIATELY.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Payments Reconciliation\Payments_Refunds\outputs\refund_recon_20251216_141501\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -1684,11 +1689,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1752,6 +1757,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1798,7 +1811,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1830,9 +1843,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1864,6 +1878,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2039,14 +2054,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P269"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="22.42578125" customWidth="1"/>
+    <col min="6" max="6" width="25.42578125" customWidth="1"/>
+    <col min="14" max="14" width="23.28515625" customWidth="1"/>
+    <col min="15" max="15" width="49.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2096,7 +2117,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -2122,7 +2143,7 @@
         <v>100</v>
       </c>
       <c r="I2">
-        <v>93.23999999999999</v>
+        <v>93.24</v>
       </c>
       <c r="J2">
         <v>96.67</v>
@@ -2146,12 +2167,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>17</v>
       </c>
       <c r="B3">
-        <v>52307.934</v>
+        <v>52307.934000000001</v>
       </c>
       <c r="C3" s="2">
         <v>45352</v>
@@ -2196,12 +2217,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>18</v>
       </c>
       <c r="B4">
-        <v>42101.0205</v>
+        <v>42101.020499999999</v>
       </c>
       <c r="C4" s="2">
         <v>45340</v>
@@ -2246,12 +2267,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>19</v>
       </c>
       <c r="B5">
-        <v>20504.3895</v>
+        <v>20504.389500000001</v>
       </c>
       <c r="C5" s="2">
         <v>45383</v>
@@ -2260,7 +2281,7 @@
         <v>287</v>
       </c>
       <c r="E5">
-        <v>19527.99</v>
+        <v>19527.990000000002</v>
       </c>
       <c r="F5" s="2">
         <v>45382</v>
@@ -2296,12 +2317,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>20</v>
       </c>
       <c r="B6">
-        <v>6025.656</v>
+        <v>6025.6559999999999</v>
       </c>
       <c r="C6" s="2">
         <v>45345</v>
@@ -2346,12 +2367,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>21</v>
       </c>
       <c r="B7">
-        <v>10133.5395</v>
+        <v>10133.539500000001</v>
       </c>
       <c r="C7" s="2">
         <v>45353</v>
@@ -2396,7 +2417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -2446,12 +2467,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>23</v>
       </c>
       <c r="B9">
-        <v>48696.522</v>
+        <v>48696.521999999997</v>
       </c>
       <c r="C9" s="2">
         <v>45306</v>
@@ -2496,12 +2517,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>24</v>
       </c>
       <c r="B10">
-        <v>6939.5235</v>
+        <v>6939.5235000000002</v>
       </c>
       <c r="C10" s="2">
         <v>45341</v>
@@ -2546,12 +2567,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>25</v>
       </c>
       <c r="B11">
-        <v>34624.9995</v>
+        <v>34624.999499999998</v>
       </c>
       <c r="C11" s="2">
         <v>45360</v>
@@ -2596,7 +2617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -2646,7 +2667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>27</v>
       </c>
@@ -2696,12 +2717,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>28</v>
       </c>
       <c r="B14">
-        <v>4358.193</v>
+        <v>4358.1930000000002</v>
       </c>
       <c r="C14" s="2">
         <v>45375</v>
@@ -2746,12 +2767,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>29</v>
       </c>
       <c r="B15">
-        <v>39172.791</v>
+        <v>39172.790999999997</v>
       </c>
       <c r="C15" s="2">
         <v>45332</v>
@@ -2796,12 +2817,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>30</v>
       </c>
       <c r="B16">
-        <v>43952.4855</v>
+        <v>43952.485500000003</v>
       </c>
       <c r="C16" s="2">
         <v>45294</v>
@@ -2846,12 +2867,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>31</v>
       </c>
       <c r="B17">
-        <v>8288.888999999999</v>
+        <v>8288.8889999999992</v>
       </c>
       <c r="C17" s="2">
         <v>45340</v>
@@ -2896,12 +2917,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>32</v>
       </c>
       <c r="B18">
-        <v>14028.504</v>
+        <v>14028.504000000001</v>
       </c>
       <c r="C18" s="2">
         <v>45329</v>
@@ -2946,7 +2967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>33</v>
       </c>
@@ -2996,12 +3017,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>34</v>
       </c>
       <c r="B20">
-        <v>20986.665</v>
+        <v>20986.665000000001</v>
       </c>
       <c r="C20" s="2">
         <v>45342</v>
@@ -3046,12 +3067,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>35</v>
       </c>
       <c r="B21">
-        <v>47159.6055</v>
+        <v>47159.605499999998</v>
       </c>
       <c r="C21" s="2">
         <v>45377</v>
@@ -3096,7 +3117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>36</v>
       </c>
@@ -3146,12 +3167,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>37</v>
       </c>
       <c r="B23">
-        <v>31102.995</v>
+        <v>31102.994999999999</v>
       </c>
       <c r="C23" s="2">
         <v>45333</v>
@@ -3196,12 +3217,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>38</v>
       </c>
       <c r="B24">
-        <v>7048.5345</v>
+        <v>7048.5344999999998</v>
       </c>
       <c r="C24" s="2">
         <v>45381</v>
@@ -3246,7 +3267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:16">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>39</v>
       </c>
@@ -3296,12 +3317,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:16">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>40</v>
       </c>
       <c r="B26">
-        <v>45662.5785</v>
+        <v>45662.578500000003</v>
       </c>
       <c r="C26" s="2">
         <v>45317</v>
@@ -3346,12 +3367,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:16">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>41</v>
       </c>
       <c r="B27">
-        <v>43798.2825</v>
+        <v>43798.282500000001</v>
       </c>
       <c r="C27" s="2">
         <v>45356</v>
@@ -3396,12 +3417,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:16">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>42</v>
       </c>
       <c r="B28">
-        <v>43885.275</v>
+        <v>43885.275000000001</v>
       </c>
       <c r="C28" s="2">
         <v>45307</v>
@@ -3446,7 +3467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:16">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>43</v>
       </c>
@@ -3496,7 +3517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:16">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>44</v>
       </c>
@@ -3546,12 +3567,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:16">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>45</v>
       </c>
       <c r="B31">
-        <v>23305.275</v>
+        <v>23305.275000000001</v>
       </c>
       <c r="C31" s="2">
         <v>45322</v>
@@ -3596,12 +3617,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:16">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>46</v>
       </c>
       <c r="B32">
-        <v>20619.207</v>
+        <v>20619.206999999999</v>
       </c>
       <c r="C32" s="2">
         <v>45322</v>
@@ -3646,12 +3667,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:16">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>47</v>
       </c>
       <c r="B33">
-        <v>6091.95299999999</v>
+        <v>6091.9529999999904</v>
       </c>
       <c r="C33" s="2">
         <v>45342</v>
@@ -3696,12 +3717,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:16">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>48</v>
       </c>
       <c r="B34">
-        <v>39170.4075</v>
+        <v>39170.407500000001</v>
       </c>
       <c r="C34" s="2">
         <v>45347</v>
@@ -3746,12 +3767,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:16">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>49</v>
       </c>
       <c r="B35">
-        <v>19449.612</v>
+        <v>19449.612000000001</v>
       </c>
       <c r="C35" s="2">
         <v>45311</v>
@@ -3760,7 +3781,7 @@
         <v>317</v>
       </c>
       <c r="E35">
-        <v>18523.44</v>
+        <v>18523.439999999999</v>
       </c>
       <c r="F35" s="2">
         <v>45310</v>
@@ -3796,7 +3817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:16">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>50</v>
       </c>
@@ -3846,7 +3867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:16">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>51</v>
       </c>
@@ -3896,7 +3917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:16">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>52</v>
       </c>
@@ -3946,12 +3967,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:16">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>53</v>
       </c>
       <c r="B39">
-        <v>32184.0015</v>
+        <v>32184.001499999998</v>
       </c>
       <c r="C39" s="2">
         <v>45334</v>
@@ -3996,12 +4017,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:16">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>54</v>
       </c>
       <c r="B40">
-        <v>35688.87</v>
+        <v>35688.870000000003</v>
       </c>
       <c r="C40" s="2">
         <v>45319</v>
@@ -4046,7 +4067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:16">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>55</v>
       </c>
@@ -4060,7 +4081,7 @@
         <v>323</v>
       </c>
       <c r="E41">
-        <v>22536.72</v>
+        <v>22536.720000000001</v>
       </c>
       <c r="F41" s="2">
         <v>45306</v>
@@ -4096,12 +4117,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:16">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>56</v>
       </c>
       <c r="B42">
-        <v>33137.916</v>
+        <v>33137.915999999997</v>
       </c>
       <c r="C42" s="2">
         <v>45318</v>
@@ -4110,7 +4131,7 @@
         <v>324</v>
       </c>
       <c r="E42">
-        <v>31559.92</v>
+        <v>31559.919999999998</v>
       </c>
       <c r="F42" s="2">
         <v>45317</v>
@@ -4146,12 +4167,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:16">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>57</v>
       </c>
       <c r="B43">
-        <v>1385.83199999999</v>
+        <v>1385.8319999999901</v>
       </c>
       <c r="C43" s="2">
         <v>45373</v>
@@ -4196,12 +4217,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:16">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>58</v>
       </c>
       <c r="B44">
-        <v>13286.0385</v>
+        <v>13286.038500000001</v>
       </c>
       <c r="C44" s="2">
         <v>45297</v>
@@ -4246,7 +4267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:16">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>59</v>
       </c>
@@ -4296,7 +4317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:16">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>60</v>
       </c>
@@ -4346,12 +4367,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:16">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>61</v>
       </c>
       <c r="B47">
-        <v>9140.061</v>
+        <v>9140.0609999999997</v>
       </c>
       <c r="C47" s="2">
         <v>45360</v>
@@ -4396,7 +4417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:16">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>62</v>
       </c>
@@ -4446,12 +4467,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:16">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>63</v>
       </c>
       <c r="B49">
-        <v>48133.6275</v>
+        <v>48133.627500000002</v>
       </c>
       <c r="C49" s="2">
         <v>45366</v>
@@ -4496,7 +4517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:16">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>64</v>
       </c>
@@ -4546,12 +4567,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:16">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>65</v>
       </c>
       <c r="B51">
-        <v>1090.362</v>
+        <v>1090.3620000000001</v>
       </c>
       <c r="C51" s="2">
         <v>45372</v>
@@ -4596,12 +4617,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:16">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>66</v>
       </c>
       <c r="B52">
-        <v>16776.0915</v>
+        <v>16776.091499999999</v>
       </c>
       <c r="C52" s="2">
         <v>45306</v>
@@ -4646,12 +4667,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:16">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>67</v>
       </c>
       <c r="B53">
-        <v>4974.35399999999</v>
+        <v>4974.3539999999903</v>
       </c>
       <c r="C53" s="2">
         <v>45355</v>
@@ -4660,7 +4681,7 @@
         <v>335</v>
       </c>
       <c r="E53">
-        <v>4737.48</v>
+        <v>4737.4799999999996</v>
       </c>
       <c r="F53" s="2">
         <v>45353</v>
@@ -4696,7 +4717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:16">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>68</v>
       </c>
@@ -4746,12 +4767,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:16">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>69</v>
       </c>
       <c r="B55">
-        <v>44847.9675</v>
+        <v>44847.967499999999</v>
       </c>
       <c r="C55" s="2">
         <v>45366</v>
@@ -4796,7 +4817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:16">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>70</v>
       </c>
@@ -4846,12 +4867,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:16">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>71</v>
       </c>
       <c r="B57">
-        <v>7212.0615</v>
+        <v>7212.0614999999998</v>
       </c>
       <c r="C57" s="2">
         <v>45376</v>
@@ -4896,12 +4917,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:16">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>72</v>
       </c>
       <c r="B58">
-        <v>34952.799</v>
+        <v>34952.798999999999</v>
       </c>
       <c r="C58" s="2">
         <v>45323</v>
@@ -4910,7 +4931,7 @@
         <v>340</v>
       </c>
       <c r="E58">
-        <v>33288.38</v>
+        <v>33288.379999999997</v>
       </c>
       <c r="F58" s="2">
         <v>45321</v>
@@ -4946,7 +4967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:16">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>73</v>
       </c>
@@ -4996,7 +5017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:16">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>74</v>
       </c>
@@ -5046,12 +5067,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:16">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>75</v>
       </c>
       <c r="B61">
-        <v>44248.0709999999</v>
+        <v>44248.070999999902</v>
       </c>
       <c r="C61" s="2">
         <v>45340</v>
@@ -5096,12 +5117,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:16">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>76</v>
       </c>
       <c r="B62">
-        <v>41432.5065</v>
+        <v>41432.506500000003</v>
       </c>
       <c r="C62" s="2">
         <v>45340</v>
@@ -5146,12 +5167,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:16">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>77</v>
       </c>
       <c r="B63">
-        <v>8844.674999999999</v>
+        <v>8844.6749999999993</v>
       </c>
       <c r="C63" s="2">
         <v>45382</v>
@@ -5196,12 +5217,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:16">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>78</v>
       </c>
       <c r="B64">
-        <v>25075.827</v>
+        <v>25075.827000000001</v>
       </c>
       <c r="C64" s="2">
         <v>45312</v>
@@ -5246,12 +5267,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:16">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>79</v>
       </c>
       <c r="B65">
-        <v>4880.925</v>
+        <v>4880.9250000000002</v>
       </c>
       <c r="C65" s="2">
         <v>45370</v>
@@ -5296,12 +5317,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:16">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>80</v>
       </c>
       <c r="B66">
-        <v>39504.801</v>
+        <v>39504.800999999999</v>
       </c>
       <c r="C66" s="2">
         <v>45349</v>
@@ -5310,7 +5331,7 @@
         <v>348</v>
       </c>
       <c r="E66">
-        <v>37623.62</v>
+        <v>37623.620000000003</v>
       </c>
       <c r="F66" s="2">
         <v>45347</v>
@@ -5346,7 +5367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:16">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>81</v>
       </c>
@@ -5396,7 +5417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:16">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>82</v>
       </c>
@@ -5446,12 +5467,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:16">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>83</v>
       </c>
       <c r="B69">
-        <v>45749.8545</v>
+        <v>45749.854500000001</v>
       </c>
       <c r="C69" s="2">
         <v>45376</v>
@@ -5496,12 +5517,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:16">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>84</v>
       </c>
       <c r="B70">
-        <v>30809.646</v>
+        <v>30809.646000000001</v>
       </c>
       <c r="C70" s="2">
         <v>45306</v>
@@ -5546,12 +5567,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:16">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>85</v>
       </c>
       <c r="B71">
-        <v>27187.146</v>
+        <v>27187.146000000001</v>
       </c>
       <c r="C71" s="2">
         <v>45361</v>
@@ -5596,12 +5617,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:16">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>86</v>
       </c>
       <c r="B72">
-        <v>22800.8235</v>
+        <v>22800.823499999999</v>
       </c>
       <c r="C72" s="2">
         <v>45357</v>
@@ -5646,7 +5667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:16">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>87</v>
       </c>
@@ -5660,7 +5681,7 @@
         <v>355</v>
       </c>
       <c r="E73">
-        <v>27401.92</v>
+        <v>27401.919999999998</v>
       </c>
       <c r="F73" s="2">
         <v>45360</v>
@@ -5696,12 +5717,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:16">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>88</v>
       </c>
       <c r="B74">
-        <v>47114.781</v>
+        <v>47114.781000000003</v>
       </c>
       <c r="C74" s="2">
         <v>45307</v>
@@ -5746,7 +5767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:16">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>89</v>
       </c>
@@ -5796,12 +5817,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:16">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>90</v>
       </c>
       <c r="B76">
-        <v>13697.229</v>
+        <v>13697.228999999999</v>
       </c>
       <c r="C76" s="2">
         <v>45348</v>
@@ -5846,12 +5867,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:16">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>91</v>
       </c>
       <c r="B77">
-        <v>5909.295</v>
+        <v>5909.2950000000001</v>
       </c>
       <c r="C77" s="2">
         <v>45302</v>
@@ -5896,12 +5917,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:16">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>92</v>
       </c>
       <c r="B78">
-        <v>41406.3615</v>
+        <v>41406.361499999999</v>
       </c>
       <c r="C78" s="2">
         <v>45381</v>
@@ -5910,7 +5931,7 @@
         <v>360</v>
       </c>
       <c r="E78">
-        <v>39434.63</v>
+        <v>39434.629999999997</v>
       </c>
       <c r="F78" s="2">
         <v>45379</v>
@@ -5946,7 +5967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:16">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>93</v>
       </c>
@@ -5996,12 +6017,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:16">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>94</v>
       </c>
       <c r="B80">
-        <v>28358.9775</v>
+        <v>28358.977500000001</v>
       </c>
       <c r="C80" s="2">
         <v>45341</v>
@@ -6046,12 +6067,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:16">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>95</v>
       </c>
       <c r="B81">
-        <v>25322.6925</v>
+        <v>25322.692500000001</v>
       </c>
       <c r="C81" s="2">
         <v>45355</v>
@@ -6096,7 +6117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:16">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>96</v>
       </c>
@@ -6110,7 +6131,7 @@
         <v>364</v>
       </c>
       <c r="E82">
-        <v>38239.27</v>
+        <v>38239.269999999997</v>
       </c>
       <c r="F82" s="2">
         <v>45336</v>
@@ -6146,12 +6167,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:16">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>97</v>
       </c>
       <c r="B83">
-        <v>37347.933</v>
+        <v>37347.932999999997</v>
       </c>
       <c r="C83" s="2">
         <v>45322</v>
@@ -6196,12 +6217,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:16">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>98</v>
       </c>
       <c r="B84">
-        <v>2597.217</v>
+        <v>2597.2170000000001</v>
       </c>
       <c r="C84" s="2">
         <v>45323</v>
@@ -6246,12 +6267,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:16">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>99</v>
       </c>
       <c r="B85">
-        <v>35749.4025</v>
+        <v>35749.402499999997</v>
       </c>
       <c r="C85" s="2">
         <v>45334</v>
@@ -6260,7 +6281,7 @@
         <v>367</v>
       </c>
       <c r="E85">
-        <v>34047.05</v>
+        <v>34047.050000000003</v>
       </c>
       <c r="F85" s="2">
         <v>45332</v>
@@ -6296,12 +6317,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:16">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>100</v>
       </c>
       <c r="B86">
-        <v>41938.4385</v>
+        <v>41938.438499999997</v>
       </c>
       <c r="C86" s="2">
         <v>45341</v>
@@ -6310,7 +6331,7 @@
         <v>368</v>
       </c>
       <c r="E86">
-        <v>39941.37</v>
+        <v>39941.370000000003</v>
       </c>
       <c r="F86" s="2">
         <v>45339</v>
@@ -6346,7 +6367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:16">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>101</v>
       </c>
@@ -6396,12 +6417,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:16">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>102</v>
       </c>
       <c r="B88">
-        <v>26414.1465</v>
+        <v>26414.146499999999</v>
       </c>
       <c r="C88" s="2">
         <v>45304</v>
@@ -6446,12 +6467,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:16">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>103</v>
       </c>
       <c r="B89">
-        <v>2135.868</v>
+        <v>2135.8679999999999</v>
       </c>
       <c r="C89" s="2">
         <v>45315</v>
@@ -6496,12 +6517,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:16">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>104</v>
       </c>
       <c r="B90">
-        <v>40993.449</v>
+        <v>40993.449000000001</v>
       </c>
       <c r="C90" s="2">
         <v>45361</v>
@@ -6510,7 +6531,7 @@
         <v>372</v>
       </c>
       <c r="E90">
-        <v>39041.38</v>
+        <v>39041.379999999997</v>
       </c>
       <c r="F90" s="2">
         <v>45359</v>
@@ -6546,12 +6567,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:16">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>105</v>
       </c>
       <c r="B91">
-        <v>25972.4325</v>
+        <v>25972.432499999999</v>
       </c>
       <c r="C91" s="2">
         <v>45300</v>
@@ -6596,7 +6617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:16">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>106</v>
       </c>
@@ -6646,7 +6667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:16">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>107</v>
       </c>
@@ -6660,7 +6681,7 @@
         <v>375</v>
       </c>
       <c r="E93">
-        <v>25313.92</v>
+        <v>25313.919999999998</v>
       </c>
       <c r="F93" s="2">
         <v>45302</v>
@@ -6696,12 +6717,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:16">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>108</v>
       </c>
       <c r="B94">
-        <v>34398.336</v>
+        <v>34398.336000000003</v>
       </c>
       <c r="C94" s="2">
         <v>45349</v>
@@ -6746,7 +6767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:16">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>109</v>
       </c>
@@ -6796,7 +6817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:16">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>110</v>
       </c>
@@ -6846,7 +6867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:16">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>111</v>
       </c>
@@ -6896,12 +6917,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:16">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>112</v>
       </c>
       <c r="B98">
-        <v>7048.104</v>
+        <v>7048.1040000000003</v>
       </c>
       <c r="C98" s="2">
         <v>45345</v>
@@ -6946,12 +6967,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:16">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>113</v>
       </c>
       <c r="B99">
-        <v>19148.7555</v>
+        <v>19148.755499999999</v>
       </c>
       <c r="C99" s="2">
         <v>45355</v>
@@ -6996,12 +7017,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:16">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>114</v>
       </c>
       <c r="B100">
-        <v>18421.7985</v>
+        <v>18421.798500000001</v>
       </c>
       <c r="C100" s="2">
         <v>45353</v>
@@ -7046,12 +7067,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:16">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>115</v>
       </c>
       <c r="B101">
-        <v>50891.4525</v>
+        <v>50891.452499999999</v>
       </c>
       <c r="C101" s="2">
         <v>45329</v>
@@ -7096,12 +7117,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:16">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>116</v>
       </c>
       <c r="B102">
-        <v>26735.415</v>
+        <v>26735.415000000001</v>
       </c>
       <c r="C102" s="2">
         <v>45361</v>
@@ -7146,12 +7167,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:16">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>117</v>
       </c>
       <c r="B103">
-        <v>37752.9075</v>
+        <v>37752.907500000001</v>
       </c>
       <c r="C103" s="2">
         <v>45380</v>
@@ -7196,12 +7217,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:16">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>118</v>
       </c>
       <c r="B104">
-        <v>3768.786</v>
+        <v>3768.7860000000001</v>
       </c>
       <c r="C104" s="2">
         <v>45301</v>
@@ -7246,7 +7267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:16">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>119</v>
       </c>
@@ -7296,12 +7317,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:16">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>120</v>
       </c>
       <c r="B106">
-        <v>35933.8035</v>
+        <v>35933.803500000002</v>
       </c>
       <c r="C106" s="2">
         <v>45349</v>
@@ -7346,12 +7367,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:16">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>121</v>
       </c>
       <c r="B107">
-        <v>18376.008</v>
+        <v>18376.008000000002</v>
       </c>
       <c r="C107" s="2">
         <v>45375</v>
@@ -7396,12 +7417,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:16">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>122</v>
       </c>
       <c r="B108">
-        <v>47361.5415</v>
+        <v>47361.541499999999</v>
       </c>
       <c r="C108" s="2">
         <v>45326</v>
@@ -7446,12 +7467,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:16">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>123</v>
       </c>
       <c r="B109">
-        <v>17165.7675</v>
+        <v>17165.767500000002</v>
       </c>
       <c r="C109" s="2">
         <v>45312</v>
@@ -7496,7 +7517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:16">
+    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>124</v>
       </c>
@@ -7546,7 +7567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:16">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>125</v>
       </c>
@@ -7596,12 +7617,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:16">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>126</v>
       </c>
       <c r="B112">
-        <v>13928.6385</v>
+        <v>13928.638499999999</v>
       </c>
       <c r="C112" s="2">
         <v>45303</v>
@@ -7646,12 +7667,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:16">
+    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>127</v>
       </c>
       <c r="B113">
-        <v>42171.8114999999</v>
+        <v>42171.811499999902</v>
       </c>
       <c r="C113" s="2">
         <v>45337</v>
@@ -7660,7 +7681,7 @@
         <v>395</v>
       </c>
       <c r="E113">
-        <v>40163.63</v>
+        <v>40163.629999999997</v>
       </c>
       <c r="F113" s="2">
         <v>45334</v>
@@ -7696,12 +7717,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:16">
+    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>128</v>
       </c>
       <c r="B114">
-        <v>13689.291</v>
+        <v>13689.290999999999</v>
       </c>
       <c r="C114" s="2">
         <v>45320</v>
@@ -7746,7 +7767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:16">
+    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>129</v>
       </c>
@@ -7796,12 +7817,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:16">
+    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>130</v>
       </c>
       <c r="B116">
-        <v>39413.3775</v>
+        <v>39413.377500000002</v>
       </c>
       <c r="C116" s="2">
         <v>45343</v>
@@ -7810,7 +7831,7 @@
         <v>398</v>
       </c>
       <c r="E116">
-        <v>37536.55</v>
+        <v>37536.550000000003</v>
       </c>
       <c r="F116" s="2">
         <v>45340</v>
@@ -7846,12 +7867,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:16">
+    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>131</v>
       </c>
       <c r="B117">
-        <v>34611.4965</v>
+        <v>34611.496500000001</v>
       </c>
       <c r="C117" s="2">
         <v>45377</v>
@@ -7896,12 +7917,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:16">
+    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>132</v>
       </c>
       <c r="B118">
-        <v>22513.092</v>
+        <v>22513.092000000001</v>
       </c>
       <c r="C118" s="2">
         <v>45295</v>
@@ -7910,7 +7931,7 @@
         <v>400</v>
       </c>
       <c r="E118">
-        <v>21441.04</v>
+        <v>21441.040000000001</v>
       </c>
       <c r="F118" s="2">
         <v>45292</v>
@@ -7946,12 +7967,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:16">
+    <row r="119" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>133</v>
       </c>
       <c r="B119">
-        <v>14151.6375</v>
+        <v>14151.637500000001</v>
       </c>
       <c r="C119" s="2">
         <v>45347</v>
@@ -7996,12 +8017,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:16">
+    <row r="120" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>134</v>
       </c>
       <c r="B120">
-        <v>8691.9735</v>
+        <v>8691.9735000000001</v>
       </c>
       <c r="C120" s="2">
         <v>45355</v>
@@ -8046,12 +8067,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:16">
+    <row r="121" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>135</v>
       </c>
       <c r="B121">
-        <v>45612.5565</v>
+        <v>45612.556499999999</v>
       </c>
       <c r="C121" s="2">
         <v>45321</v>
@@ -8096,12 +8117,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:16">
+    <row r="122" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>136</v>
       </c>
       <c r="B122">
-        <v>28393.0395</v>
+        <v>28393.039499999999</v>
       </c>
       <c r="C122" s="2">
         <v>45367</v>
@@ -8146,12 +8167,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:16">
+    <row r="123" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>137</v>
       </c>
       <c r="B123">
-        <v>38570.931</v>
+        <v>38570.930999999997</v>
       </c>
       <c r="C123" s="2">
         <v>45300</v>
@@ -8196,12 +8217,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:16">
+    <row r="124" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>138</v>
       </c>
       <c r="B124">
-        <v>4668.888</v>
+        <v>4668.8879999999999</v>
       </c>
       <c r="C124" s="2">
         <v>45325</v>
@@ -8210,7 +8231,7 @@
         <v>406</v>
       </c>
       <c r="E124">
-        <v>4446.56</v>
+        <v>4446.5600000000004</v>
       </c>
       <c r="F124" s="2">
         <v>45322</v>
@@ -8246,12 +8267,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:16">
+    <row r="125" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>139</v>
       </c>
       <c r="B125">
-        <v>4136.8005</v>
+        <v>4136.8005000000003</v>
       </c>
       <c r="C125" s="2">
         <v>45331</v>
@@ -8296,12 +8317,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:16">
+    <row r="126" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>140</v>
       </c>
       <c r="B126">
-        <v>29912.778</v>
+        <v>29912.777999999998</v>
       </c>
       <c r="C126" s="2">
         <v>45303</v>
@@ -8346,12 +8367,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:16">
+    <row r="127" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>141</v>
       </c>
       <c r="B127">
-        <v>4674.579</v>
+        <v>4674.5789999999997</v>
       </c>
       <c r="C127" s="2">
         <v>45341</v>
@@ -8360,7 +8381,7 @@
         <v>409</v>
       </c>
       <c r="E127">
-        <v>4451.98</v>
+        <v>4451.9799999999996</v>
       </c>
       <c r="F127" s="2">
         <v>45338</v>
@@ -8396,7 +8417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:16">
+    <row r="128" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>142</v>
       </c>
@@ -8410,7 +8431,7 @@
         <v>410</v>
       </c>
       <c r="E128">
-        <v>38413.2</v>
+        <v>38413.199999999997</v>
       </c>
       <c r="F128" s="2">
         <v>45327</v>
@@ -8446,12 +8467,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:16">
+    <row r="129" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>143</v>
       </c>
       <c r="B129">
-        <v>40765.368</v>
+        <v>40765.368000000002</v>
       </c>
       <c r="C129" s="2">
         <v>45301</v>
@@ -8460,7 +8481,7 @@
         <v>411</v>
       </c>
       <c r="E129">
-        <v>38824.16</v>
+        <v>38824.160000000003</v>
       </c>
       <c r="F129" s="2">
         <v>45298</v>
@@ -8496,12 +8517,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:16">
+    <row r="130" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>144</v>
       </c>
       <c r="B130">
-        <v>6327.447</v>
+        <v>6327.4470000000001</v>
       </c>
       <c r="C130" s="2">
         <v>45368</v>
@@ -8546,7 +8567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:16">
+    <row r="131" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>145</v>
       </c>
@@ -8596,12 +8617,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:16">
+    <row r="132" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>146</v>
       </c>
       <c r="B132">
-        <v>36010.3275</v>
+        <v>36010.327499999999</v>
       </c>
       <c r="C132" s="2">
         <v>45313</v>
@@ -8610,7 +8631,7 @@
         <v>414</v>
       </c>
       <c r="E132">
-        <v>34295.55</v>
+        <v>34295.550000000003</v>
       </c>
       <c r="F132" s="2">
         <v>45310</v>
@@ -8646,7 +8667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:16">
+    <row r="133" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>147</v>
       </c>
@@ -8696,12 +8717,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:16">
+    <row r="134" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>148</v>
       </c>
       <c r="B134">
-        <v>26856.1965</v>
+        <v>26856.196499999998</v>
       </c>
       <c r="C134" s="2">
         <v>45383</v>
@@ -8746,12 +8767,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:16">
+    <row r="135" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>149</v>
       </c>
       <c r="B135">
-        <v>21361.0845</v>
+        <v>21361.084500000001</v>
       </c>
       <c r="C135" s="2">
         <v>45299</v>
@@ -8796,12 +8817,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:16">
+    <row r="136" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>150</v>
       </c>
       <c r="B136">
-        <v>44008.7865</v>
+        <v>44008.786500000002</v>
       </c>
       <c r="C136" s="2">
         <v>45343</v>
@@ -8810,7 +8831,7 @@
         <v>418</v>
       </c>
       <c r="E136">
-        <v>41913.13</v>
+        <v>41913.129999999997</v>
       </c>
       <c r="F136" s="2">
         <v>45340</v>
@@ -8846,7 +8867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:16">
+    <row r="137" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>151</v>
       </c>
@@ -8860,7 +8881,7 @@
         <v>419</v>
       </c>
       <c r="E137">
-        <v>40620.4</v>
+        <v>40620.400000000001</v>
       </c>
       <c r="F137" s="2">
         <v>45332</v>
@@ -8896,12 +8917,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:16">
+    <row r="138" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>152</v>
       </c>
       <c r="B138">
-        <v>13949.691</v>
+        <v>13949.691000000001</v>
       </c>
       <c r="C138" s="2">
         <v>45330</v>
@@ -8946,12 +8967,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:16">
+    <row r="139" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>153</v>
       </c>
       <c r="B139">
-        <v>49846.209</v>
+        <v>49846.209000000003</v>
       </c>
       <c r="C139" s="2">
         <v>45331</v>
@@ -8996,12 +9017,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:16">
+    <row r="140" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>154</v>
       </c>
       <c r="B140">
-        <v>46279.4535</v>
+        <v>46279.453500000003</v>
       </c>
       <c r="C140" s="2">
         <v>45308</v>
@@ -9046,12 +9067,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:16">
+    <row r="141" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>155</v>
       </c>
       <c r="B141">
-        <v>20996.2515</v>
+        <v>20996.251499999998</v>
       </c>
       <c r="C141" s="2">
         <v>45366</v>
@@ -9096,7 +9117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:16">
+    <row r="142" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>156</v>
       </c>
@@ -9146,12 +9167,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:16">
+    <row r="143" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>157</v>
       </c>
       <c r="B143">
-        <v>5844.573</v>
+        <v>5844.5730000000003</v>
       </c>
       <c r="C143" s="2">
         <v>45372</v>
@@ -9196,7 +9217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:16">
+    <row r="144" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>158</v>
       </c>
@@ -9246,12 +9267,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:16">
+    <row r="145" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>159</v>
       </c>
       <c r="B145">
-        <v>7794.8115</v>
+        <v>7794.8114999999998</v>
       </c>
       <c r="C145" s="2">
         <v>45385</v>
@@ -9296,7 +9317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:16">
+    <row r="146" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>160</v>
       </c>
@@ -9346,7 +9367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:16">
+    <row r="147" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>161</v>
       </c>
@@ -9396,7 +9417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:16">
+    <row r="148" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>162</v>
       </c>
@@ -9446,12 +9467,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:16">
+    <row r="149" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>163</v>
       </c>
       <c r="B149">
-        <v>2681.5215</v>
+        <v>2681.5214999999998</v>
       </c>
       <c r="C149" s="2">
         <v>45364</v>
@@ -9496,12 +9517,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:16">
+    <row r="150" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>164</v>
       </c>
       <c r="B150">
-        <v>6466.446</v>
+        <v>6466.4459999999999</v>
       </c>
       <c r="C150" s="2">
         <v>45380</v>
@@ -9546,7 +9567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:16">
+    <row r="151" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>165</v>
       </c>
@@ -9596,7 +9617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:16">
+    <row r="152" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>166</v>
       </c>
@@ -9646,12 +9667,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:16">
+    <row r="153" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>167</v>
       </c>
       <c r="B153">
-        <v>3538.773</v>
+        <v>3538.7730000000001</v>
       </c>
       <c r="C153" s="2">
         <v>45376</v>
@@ -9696,12 +9717,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:16">
+    <row r="154" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>168</v>
       </c>
       <c r="B154">
-        <v>41783.343</v>
+        <v>41783.343000000001</v>
       </c>
       <c r="C154" s="2">
         <v>45320</v>
@@ -9710,7 +9731,7 @@
         <v>436</v>
       </c>
       <c r="E154">
-        <v>39793.66</v>
+        <v>39793.660000000003</v>
       </c>
       <c r="F154" s="2">
         <v>45316</v>
@@ -9746,12 +9767,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:16">
+    <row r="155" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>169</v>
       </c>
       <c r="B155">
-        <v>17681.622</v>
+        <v>17681.621999999999</v>
       </c>
       <c r="C155" s="2">
         <v>45308</v>
@@ -9796,12 +9817,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:16">
+    <row r="156" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>170</v>
       </c>
       <c r="B156">
-        <v>8139.663</v>
+        <v>8139.6629999999996</v>
       </c>
       <c r="C156" s="2">
         <v>45378</v>
@@ -9846,7 +9867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:16">
+    <row r="157" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>171</v>
       </c>
@@ -9860,7 +9881,7 @@
         <v>439</v>
       </c>
       <c r="E157">
-        <v>21210.24</v>
+        <v>21210.240000000002</v>
       </c>
       <c r="F157" s="2">
         <v>45343</v>
@@ -9896,12 +9917,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:16">
+    <row r="158" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>172</v>
       </c>
       <c r="B158">
-        <v>29762.8905</v>
+        <v>29762.890500000001</v>
       </c>
       <c r="C158" s="2">
         <v>45329</v>
@@ -9946,7 +9967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:16">
+    <row r="159" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>173</v>
       </c>
@@ -9996,7 +10017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:16">
+    <row r="160" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>174</v>
       </c>
@@ -10046,12 +10067,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:16">
+    <row r="161" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>175</v>
       </c>
       <c r="B161">
-        <v>30491.139</v>
+        <v>30491.138999999999</v>
       </c>
       <c r="C161" s="2">
         <v>45306</v>
@@ -10096,7 +10117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:16">
+    <row r="162" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>176</v>
       </c>
@@ -10146,12 +10167,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:16">
+    <row r="163" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>177</v>
       </c>
       <c r="B163">
-        <v>5291.811</v>
+        <v>5291.8109999999997</v>
       </c>
       <c r="C163" s="2">
         <v>45353</v>
@@ -10196,7 +10217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:16">
+    <row r="164" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>178</v>
       </c>
@@ -10210,7 +10231,7 @@
         <v>446</v>
       </c>
       <c r="E164">
-        <v>45357.6</v>
+        <v>45357.599999999999</v>
       </c>
       <c r="F164" s="2">
         <v>45324</v>
@@ -10246,7 +10267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:16">
+    <row r="165" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>179</v>
       </c>
@@ -10296,7 +10317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:16">
+    <row r="166" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>180</v>
       </c>
@@ -10346,12 +10367,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:16">
+    <row r="167" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>181</v>
       </c>
       <c r="B167">
-        <v>49346.262</v>
+        <v>49346.262000000002</v>
       </c>
       <c r="C167" s="2">
         <v>45372</v>
@@ -10396,7 +10417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:16">
+    <row r="168" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>182</v>
       </c>
@@ -10446,12 +10467,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:16">
+    <row r="169" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>183</v>
       </c>
       <c r="B169">
-        <v>18429.5475</v>
+        <v>18429.547500000001</v>
       </c>
       <c r="C169" s="2">
         <v>45321</v>
@@ -10496,12 +10517,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:16">
+    <row r="170" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>184</v>
       </c>
       <c r="B170">
-        <v>20389.3515</v>
+        <v>20389.351500000001</v>
       </c>
       <c r="C170" s="2">
         <v>45357</v>
@@ -10546,12 +10567,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:16">
+    <row r="171" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>185</v>
       </c>
       <c r="B171">
-        <v>28088.151</v>
+        <v>28088.151000000002</v>
       </c>
       <c r="C171" s="2">
         <v>45344</v>
@@ -10596,12 +10617,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:16">
+    <row r="172" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>186</v>
       </c>
       <c r="B172">
-        <v>3411.2715</v>
+        <v>3411.2714999999998</v>
       </c>
       <c r="C172" s="2">
         <v>45342</v>
@@ -10646,12 +10667,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:16">
+    <row r="173" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>187</v>
       </c>
       <c r="B173">
-        <v>41018.229</v>
+        <v>41018.228999999999</v>
       </c>
       <c r="C173" s="2">
         <v>45325</v>
@@ -10660,7 +10681,7 @@
         <v>455</v>
       </c>
       <c r="E173">
-        <v>39064.98</v>
+        <v>39064.980000000003</v>
       </c>
       <c r="F173" s="2">
         <v>45321</v>
@@ -10696,12 +10717,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:16">
+    <row r="174" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>188</v>
       </c>
       <c r="B174">
-        <v>37353.5715</v>
+        <v>37353.571499999998</v>
       </c>
       <c r="C174" s="2">
         <v>45299</v>
@@ -10746,12 +10767,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:16">
+    <row r="175" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>189</v>
       </c>
       <c r="B175">
-        <v>49497.567</v>
+        <v>49497.567000000003</v>
       </c>
       <c r="C175" s="2">
         <v>45382</v>
@@ -10796,12 +10817,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:16">
+    <row r="176" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>190</v>
       </c>
       <c r="B176">
-        <v>35787.444</v>
+        <v>35787.444000000003</v>
       </c>
       <c r="C176" s="2">
         <v>45304</v>
@@ -10810,7 +10831,7 @@
         <v>458</v>
       </c>
       <c r="E176">
-        <v>34083.28</v>
+        <v>34083.279999999999</v>
       </c>
       <c r="F176" s="2">
         <v>45300</v>
@@ -10846,12 +10867,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:16">
+    <row r="177" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>191</v>
       </c>
       <c r="B177">
-        <v>51420.222</v>
+        <v>51420.222000000002</v>
       </c>
       <c r="C177" s="2">
         <v>45379</v>
@@ -10896,7 +10917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:16">
+    <row r="178" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>192</v>
       </c>
@@ -10946,12 +10967,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:16">
+    <row r="179" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>193</v>
       </c>
       <c r="B179">
-        <v>16084.7295</v>
+        <v>16084.729499999999</v>
       </c>
       <c r="C179" s="2">
         <v>45358</v>
@@ -10996,12 +11017,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:16">
+    <row r="180" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>194</v>
       </c>
       <c r="B180">
-        <v>4200.882</v>
+        <v>4200.8819999999996</v>
       </c>
       <c r="C180" s="2">
         <v>45344</v>
@@ -11046,12 +11067,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:16">
+    <row r="181" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>195</v>
       </c>
       <c r="B181">
-        <v>52161.984</v>
+        <v>52161.983999999997</v>
       </c>
       <c r="C181" s="2">
         <v>45329</v>
@@ -11060,7 +11081,7 @@
         <v>463</v>
       </c>
       <c r="E181">
-        <v>49678.08</v>
+        <v>49678.080000000002</v>
       </c>
       <c r="F181" s="2">
         <v>45325</v>
@@ -11096,12 +11117,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:16">
+    <row r="182" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>196</v>
       </c>
       <c r="B182">
-        <v>50962.905</v>
+        <v>50962.904999999999</v>
       </c>
       <c r="C182" s="2">
         <v>45300</v>
@@ -11146,7 +11167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:16">
+    <row r="183" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>197</v>
       </c>
@@ -11196,12 +11217,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:16">
+    <row r="184" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>198</v>
       </c>
       <c r="B184">
-        <v>6197.247</v>
+        <v>6197.2470000000003</v>
       </c>
       <c r="C184" s="2">
         <v>45341</v>
@@ -11246,12 +11267,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:16">
+    <row r="185" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>199</v>
       </c>
       <c r="B185">
-        <v>5546.898</v>
+        <v>5546.8980000000001</v>
       </c>
       <c r="C185" s="2">
         <v>45360</v>
@@ -11296,12 +11317,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:16">
+    <row r="186" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>200</v>
       </c>
       <c r="B186">
-        <v>1655.8185</v>
+        <v>1655.8185000000001</v>
       </c>
       <c r="C186" s="2">
         <v>45324</v>
@@ -11346,12 +11367,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:16">
+    <row r="187" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>201</v>
       </c>
       <c r="B187">
-        <v>6474.0795</v>
+        <v>6474.0794999999998</v>
       </c>
       <c r="C187" s="2">
         <v>45367</v>
@@ -11396,7 +11417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:16">
+    <row r="188" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>202</v>
       </c>
@@ -11446,12 +11467,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:16">
+    <row r="189" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>203</v>
       </c>
       <c r="B189">
-        <v>32948.706</v>
+        <v>32948.705999999998</v>
       </c>
       <c r="C189" s="2">
         <v>45324</v>
@@ -11496,7 +11517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:16">
+    <row r="190" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>204</v>
       </c>
@@ -11546,7 +11567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:16">
+    <row r="191" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>205</v>
       </c>
@@ -11596,12 +11617,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:16">
+    <row r="192" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>206</v>
       </c>
       <c r="B192">
-        <v>8857.254000000001</v>
+        <v>8857.2540000000008</v>
       </c>
       <c r="C192" s="2">
         <v>45333</v>
@@ -11646,12 +11667,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:16">
+    <row r="193" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>207</v>
       </c>
       <c r="B193">
-        <v>25897.9875</v>
+        <v>25897.987499999999</v>
       </c>
       <c r="C193" s="2">
         <v>45303</v>
@@ -11696,12 +11717,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:16">
+    <row r="194" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>208</v>
       </c>
       <c r="B194">
-        <v>5306.2065</v>
+        <v>5306.2065000000002</v>
       </c>
       <c r="C194" s="2">
         <v>45357</v>
@@ -11746,12 +11767,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:16">
+    <row r="195" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>209</v>
       </c>
       <c r="B195">
-        <v>39690.168</v>
+        <v>39690.167999999998</v>
       </c>
       <c r="C195" s="2">
         <v>45382</v>
@@ -11760,7 +11781,7 @@
         <v>477</v>
       </c>
       <c r="E195">
-        <v>37800.16</v>
+        <v>37800.160000000003</v>
       </c>
       <c r="F195" s="2">
         <v>45378</v>
@@ -11796,12 +11817,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:16">
+    <row r="196" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>210</v>
       </c>
       <c r="B196">
-        <v>35185.9724999999</v>
+        <v>35185.972499999902</v>
       </c>
       <c r="C196" s="2">
         <v>45342</v>
@@ -11810,7 +11831,7 @@
         <v>478</v>
       </c>
       <c r="E196">
-        <v>33510.45</v>
+        <v>33510.449999999997</v>
       </c>
       <c r="F196" s="2">
         <v>45338</v>
@@ -11846,7 +11867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:16">
+    <row r="197" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>211</v>
       </c>
@@ -11860,7 +11881,7 @@
         <v>479</v>
       </c>
       <c r="E197">
-        <v>32912.8</v>
+        <v>32912.800000000003</v>
       </c>
       <c r="F197" s="2">
         <v>45364</v>
@@ -11896,12 +11917,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:16">
+    <row r="198" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>212</v>
       </c>
       <c r="B198">
-        <v>24059.8785</v>
+        <v>24059.878499999999</v>
       </c>
       <c r="C198" s="2">
         <v>45317</v>
@@ -11946,12 +11967,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:16">
+    <row r="199" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>213</v>
       </c>
       <c r="B199">
-        <v>22001.5215</v>
+        <v>22001.521499999999</v>
       </c>
       <c r="C199" s="2">
         <v>45368</v>
@@ -11960,7 +11981,7 @@
         <v>481</v>
       </c>
       <c r="E199">
-        <v>20953.83</v>
+        <v>20953.830000000002</v>
       </c>
       <c r="F199" s="2">
         <v>45364</v>
@@ -11996,12 +12017,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:16">
+    <row r="200" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>214</v>
       </c>
       <c r="B200">
-        <v>22112.202</v>
+        <v>22112.202000000001</v>
       </c>
       <c r="C200" s="2">
         <v>45317</v>
@@ -12046,7 +12067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:16">
+    <row r="201" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>215</v>
       </c>
@@ -12096,7 +12117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:16">
+    <row r="202" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>216</v>
       </c>
@@ -12146,7 +12167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:16">
+    <row r="203" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>217</v>
       </c>
@@ -12196,12 +12217,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:16">
+    <row r="204" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>218</v>
       </c>
       <c r="B204">
-        <v>17438.9775</v>
+        <v>17438.977500000001</v>
       </c>
       <c r="C204" s="2">
         <v>45359</v>
@@ -12246,12 +12267,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:16">
+    <row r="205" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>219</v>
       </c>
       <c r="B205">
-        <v>45353.28</v>
+        <v>45353.279999999999</v>
       </c>
       <c r="C205" s="2">
         <v>45356</v>
@@ -12260,7 +12281,7 @@
         <v>487</v>
       </c>
       <c r="E205">
-        <v>43193.6</v>
+        <v>43193.599999999999</v>
       </c>
       <c r="F205" s="2">
         <v>45352</v>
@@ -12296,12 +12317,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:16">
+    <row r="206" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>220</v>
       </c>
       <c r="B206">
-        <v>46643.5935</v>
+        <v>46643.593500000003</v>
       </c>
       <c r="C206" s="2">
         <v>45350</v>
@@ -12346,7 +12367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:16">
+    <row r="207" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>221</v>
       </c>
@@ -12396,12 +12417,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:16">
+    <row r="208" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>222</v>
       </c>
       <c r="B208">
-        <v>9600.108</v>
+        <v>9600.1080000000002</v>
       </c>
       <c r="C208" s="2">
         <v>45378</v>
@@ -12410,7 +12431,7 @@
         <v>490</v>
       </c>
       <c r="E208">
-        <v>9142.959999999999</v>
+        <v>9142.9599999999991</v>
       </c>
       <c r="F208" s="2">
         <v>45374</v>
@@ -12446,12 +12467,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:16">
+    <row r="209" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>223</v>
       </c>
       <c r="B209">
-        <v>41618.8815</v>
+        <v>41618.881500000003</v>
       </c>
       <c r="C209" s="2">
         <v>45369</v>
@@ -12496,12 +12517,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:16">
+    <row r="210" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>224</v>
       </c>
       <c r="B210">
-        <v>5019.693</v>
+        <v>5019.6930000000002</v>
       </c>
       <c r="C210" s="2">
         <v>45330</v>
@@ -12546,12 +12567,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:16">
+    <row r="211" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>225</v>
       </c>
       <c r="B211">
-        <v>39767.1959999999</v>
+        <v>39767.195999999902</v>
       </c>
       <c r="C211" s="2">
         <v>45356</v>
@@ -12560,7 +12581,7 @@
         <v>493</v>
       </c>
       <c r="E211">
-        <v>37873.52</v>
+        <v>37873.519999999997</v>
       </c>
       <c r="F211" s="2">
         <v>45351</v>
@@ -12596,7 +12617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:16">
+    <row r="212" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>226</v>
       </c>
@@ -12646,12 +12667,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:16">
+    <row r="213" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>227</v>
       </c>
       <c r="B213">
-        <v>19313.637</v>
+        <v>19313.636999999999</v>
       </c>
       <c r="C213" s="2">
         <v>45301</v>
@@ -12660,7 +12681,7 @@
         <v>495</v>
       </c>
       <c r="E213">
-        <v>18393.94</v>
+        <v>18393.939999999999</v>
       </c>
       <c r="F213" s="2">
         <v>45296</v>
@@ -12696,12 +12717,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:16">
+    <row r="214" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>228</v>
       </c>
       <c r="B214">
-        <v>49788.417</v>
+        <v>49788.417000000001</v>
       </c>
       <c r="C214" s="2">
         <v>45350</v>
@@ -12746,12 +12767,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:16">
+    <row r="215" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>229</v>
       </c>
       <c r="B215">
-        <v>45583.902</v>
+        <v>45583.902000000002</v>
       </c>
       <c r="C215" s="2">
         <v>45370</v>
@@ -12796,12 +12817,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:16">
+    <row r="216" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>230</v>
       </c>
       <c r="B216">
-        <v>40331.487</v>
+        <v>40331.487000000001</v>
       </c>
       <c r="C216" s="2">
         <v>45334</v>
@@ -12846,12 +12867,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:16">
+    <row r="217" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>231</v>
       </c>
       <c r="B217">
-        <v>39205.824</v>
+        <v>39205.824000000001</v>
       </c>
       <c r="C217" s="2">
         <v>45316</v>
@@ -12860,7 +12881,7 @@
         <v>499</v>
       </c>
       <c r="E217">
-        <v>37338.88</v>
+        <v>37338.879999999997</v>
       </c>
       <c r="F217" s="2">
         <v>45311</v>
@@ -12896,12 +12917,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:16">
+    <row r="218" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>232</v>
       </c>
       <c r="B218">
-        <v>11083.254</v>
+        <v>11083.254000000001</v>
       </c>
       <c r="C218" s="2">
         <v>45370</v>
@@ -12946,12 +12967,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:16">
+    <row r="219" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>233</v>
       </c>
       <c r="B219">
-        <v>2858.919</v>
+        <v>2858.9189999999999</v>
       </c>
       <c r="C219" s="2">
         <v>45322</v>
@@ -12996,12 +13017,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:16">
+    <row r="220" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>234</v>
       </c>
       <c r="B220">
-        <v>20197.653</v>
+        <v>20197.652999999998</v>
       </c>
       <c r="C220" s="2">
         <v>45372</v>
@@ -13046,12 +13067,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:16">
+    <row r="221" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>235</v>
       </c>
       <c r="B221">
-        <v>34775.958</v>
+        <v>34775.957999999999</v>
       </c>
       <c r="C221" s="2">
         <v>45372</v>
@@ -13096,12 +13117,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:16">
+    <row r="222" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>236</v>
       </c>
       <c r="B222">
-        <v>48773.634</v>
+        <v>48773.633999999998</v>
       </c>
       <c r="C222" s="2">
         <v>45367</v>
@@ -13146,12 +13167,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:16">
+    <row r="223" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>237</v>
       </c>
       <c r="B223">
-        <v>49432.488</v>
+        <v>49432.487999999998</v>
       </c>
       <c r="C223" s="2">
         <v>45320</v>
@@ -13160,7 +13181,7 @@
         <v>505</v>
       </c>
       <c r="E223">
-        <v>47078.56</v>
+        <v>47078.559999999998</v>
       </c>
       <c r="F223" s="2">
         <v>45315</v>
@@ -13196,7 +13217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:16">
+    <row r="224" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>238</v>
       </c>
@@ -13246,7 +13267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:16">
+    <row r="225" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>239</v>
       </c>
@@ -13260,7 +13281,7 @@
         <v>507</v>
       </c>
       <c r="E225">
-        <v>10130.8</v>
+        <v>10130.799999999999</v>
       </c>
       <c r="F225" s="2">
         <v>45325</v>
@@ -13296,12 +13317,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:16">
+    <row r="226" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>240</v>
       </c>
       <c r="B226">
-        <v>21772.023</v>
+        <v>21772.023000000001</v>
       </c>
       <c r="C226" s="2">
         <v>45358</v>
@@ -13310,7 +13331,7 @@
         <v>508</v>
       </c>
       <c r="E226">
-        <v>20735.26</v>
+        <v>20735.259999999998</v>
       </c>
       <c r="F226" s="2">
         <v>45353</v>
@@ -13346,12 +13367,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:16">
+    <row r="227" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>241</v>
       </c>
       <c r="B227">
-        <v>7090.776</v>
+        <v>7090.7759999999998</v>
       </c>
       <c r="C227" s="2">
         <v>45331</v>
@@ -13396,12 +13417,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:16">
+    <row r="228" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>242</v>
       </c>
       <c r="B228">
-        <v>45994.683</v>
+        <v>45994.682999999997</v>
       </c>
       <c r="C228" s="2">
         <v>45356</v>
@@ -13446,7 +13467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:16">
+    <row r="229" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>243</v>
       </c>
@@ -13496,12 +13517,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:16">
+    <row r="230" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>244</v>
       </c>
       <c r="B230">
-        <v>9595.057500000001</v>
+        <v>9595.0575000000008</v>
       </c>
       <c r="C230" s="2">
         <v>45359</v>
@@ -13546,12 +13567,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:16">
+    <row r="231" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>245</v>
       </c>
       <c r="B231">
-        <v>32736.7635</v>
+        <v>32736.763500000001</v>
       </c>
       <c r="C231" s="2">
         <v>45368</v>
@@ -13596,7 +13617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:16">
+    <row r="232" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>246</v>
       </c>
@@ -13646,12 +13667,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:16">
+    <row r="233" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>247</v>
       </c>
       <c r="B233">
-        <v>8507.173500000001</v>
+        <v>8507.1735000000008</v>
       </c>
       <c r="C233" s="2">
         <v>45298</v>
@@ -13696,7 +13717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:16">
+    <row r="234" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>248</v>
       </c>
@@ -13746,12 +13767,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:16">
+    <row r="235" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>249</v>
       </c>
       <c r="B235">
-        <v>37702.1504999999</v>
+        <v>37702.150499999902</v>
       </c>
       <c r="C235" s="2">
         <v>45303</v>
@@ -13796,12 +13817,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:16">
+    <row r="236" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>250</v>
       </c>
       <c r="B236">
-        <v>48375.5475</v>
+        <v>48375.547500000001</v>
       </c>
       <c r="C236" s="2">
         <v>45311</v>
@@ -13846,7 +13867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:16">
+    <row r="237" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>251</v>
       </c>
@@ -13896,7 +13917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:16">
+    <row r="238" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>252</v>
       </c>
@@ -13946,7 +13967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:16">
+    <row r="239" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>253</v>
       </c>
@@ -13960,7 +13981,7 @@
         <v>521</v>
       </c>
       <c r="E239">
-        <v>2451.72</v>
+        <v>2451.7199999999998</v>
       </c>
       <c r="F239" s="2">
         <v>45368</v>
@@ -13996,12 +14017,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:16">
+    <row r="240" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>254</v>
       </c>
       <c r="B240">
-        <v>52034.6295</v>
+        <v>52034.629500000003</v>
       </c>
       <c r="C240" s="2">
         <v>45371</v>
@@ -14046,12 +14067,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:16">
+    <row r="241" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>255</v>
       </c>
       <c r="B241">
-        <v>44966.4915</v>
+        <v>44966.491499999996</v>
       </c>
       <c r="C241" s="2">
         <v>45342</v>
@@ -14096,12 +14117,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:16">
+    <row r="242" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>256</v>
       </c>
       <c r="B242">
-        <v>50690.7555</v>
+        <v>50690.755499999999</v>
       </c>
       <c r="C242" s="2">
         <v>45369</v>
@@ -14146,12 +14167,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:16">
+    <row r="243" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>257</v>
       </c>
       <c r="B243">
-        <v>46258.485</v>
+        <v>46258.485000000001</v>
       </c>
       <c r="C243" s="2">
         <v>45311</v>
@@ -14196,7 +14217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:16">
+    <row r="244" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>258</v>
       </c>
@@ -14246,7 +14267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:16">
+    <row r="245" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>259</v>
       </c>
@@ -14296,12 +14317,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:16">
+    <row r="246" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>260</v>
       </c>
       <c r="B246">
-        <v>8673.2415</v>
+        <v>8673.2415000000001</v>
       </c>
       <c r="C246" s="2">
         <v>45311</v>
@@ -14346,12 +14367,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:16">
+    <row r="247" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>261</v>
       </c>
       <c r="B247">
-        <v>50976.597</v>
+        <v>50976.597000000002</v>
       </c>
       <c r="C247" s="2">
         <v>45297</v>
@@ -14396,12 +14417,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:16">
+    <row r="248" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>262</v>
       </c>
       <c r="B248">
-        <v>6067.2885</v>
+        <v>6067.2884999999997</v>
       </c>
       <c r="C248" s="2">
         <v>45377</v>
@@ -14446,12 +14467,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:16">
+    <row r="249" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>263</v>
       </c>
       <c r="B249">
-        <v>30830.898</v>
+        <v>30830.898000000001</v>
       </c>
       <c r="C249" s="2">
         <v>45351</v>
@@ -14496,12 +14517,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:16">
+    <row r="250" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>264</v>
       </c>
       <c r="B250">
-        <v>44769.1545</v>
+        <v>44769.154499999997</v>
       </c>
       <c r="C250" s="2">
         <v>45362</v>
@@ -14546,12 +14567,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:16">
+    <row r="251" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>265</v>
       </c>
       <c r="B251">
-        <v>19820.7345</v>
+        <v>19820.734499999999</v>
       </c>
       <c r="C251" s="2">
         <v>45352</v>
@@ -14596,12 +14617,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:16">
+    <row r="252" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>266</v>
       </c>
       <c r="B252">
-        <v>24583.1985</v>
+        <v>24583.198499999999</v>
       </c>
       <c r="C252" s="2">
         <v>45314</v>
@@ -14646,7 +14667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:16">
+    <row r="253" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>267</v>
       </c>
@@ -14696,7 +14717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:16">
+    <row r="254" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>268</v>
       </c>
@@ -14746,12 +14767,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:16">
+    <row r="255" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>269</v>
       </c>
       <c r="B255">
-        <v>30797.6025</v>
+        <v>30797.602500000001</v>
       </c>
       <c r="C255" s="2">
         <v>45309</v>
@@ -14796,12 +14817,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:16">
+    <row r="256" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>270</v>
       </c>
       <c r="B256">
-        <v>44467.7205</v>
+        <v>44467.720500000003</v>
       </c>
       <c r="C256" s="2">
         <v>45352</v>
@@ -14846,12 +14867,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:16">
+    <row r="257" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>271</v>
       </c>
       <c r="B257">
-        <v>9223.1055</v>
+        <v>9223.1054999999997</v>
       </c>
       <c r="C257" s="2">
         <v>45301</v>
@@ -14896,12 +14917,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:16">
+    <row r="258" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>272</v>
       </c>
       <c r="B258">
-        <v>48671.259</v>
+        <v>48671.258999999998</v>
       </c>
       <c r="C258" s="2">
         <v>45341</v>
@@ -14946,12 +14967,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:16">
+    <row r="259" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>273</v>
       </c>
       <c r="B259">
-        <v>34791.9915</v>
+        <v>34791.991499999996</v>
       </c>
       <c r="C259" s="2">
         <v>45320</v>
@@ -14960,7 +14981,7 @@
         <v>541</v>
       </c>
       <c r="E259">
-        <v>33135.23</v>
+        <v>33135.230000000003</v>
       </c>
       <c r="F259" s="2">
         <v>45315</v>
@@ -14996,12 +15017,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:16">
+    <row r="260" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>274</v>
       </c>
       <c r="B260">
-        <v>34733.37</v>
+        <v>34733.370000000003</v>
       </c>
       <c r="C260" s="2">
         <v>45380</v>
@@ -15046,7 +15067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:16">
+    <row r="261" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>275</v>
       </c>
@@ -15060,7 +15081,7 @@
         <v>543</v>
       </c>
       <c r="E261">
-        <v>9946.799999999999</v>
+        <v>9946.7999999999993</v>
       </c>
       <c r="F261" s="2">
         <v>45300</v>
@@ -15096,12 +15117,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:16">
+    <row r="262" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>276</v>
       </c>
       <c r="B262">
-        <v>43970.5035</v>
+        <v>43970.503499999999</v>
       </c>
       <c r="C262" s="2">
         <v>45324</v>
@@ -15146,7 +15167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:16">
+    <row r="263" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>277</v>
       </c>
@@ -15196,12 +15217,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:16">
+    <row r="264" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>278</v>
       </c>
       <c r="B264">
-        <v>35963.907</v>
+        <v>35963.906999999999</v>
       </c>
       <c r="C264" s="2">
         <v>45299</v>
@@ -15210,7 +15231,7 @@
         <v>546</v>
       </c>
       <c r="E264">
-        <v>34251.34</v>
+        <v>34251.339999999997</v>
       </c>
       <c r="F264" s="2">
         <v>45294</v>
@@ -15246,12 +15267,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:16">
+    <row r="265" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>279</v>
       </c>
       <c r="B265">
-        <v>51991.9364999999</v>
+        <v>51991.936499999902</v>
       </c>
       <c r="C265" s="2">
         <v>45316</v>
@@ -15296,12 +15317,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:16">
+    <row r="266" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>280</v>
       </c>
       <c r="B266">
-        <v>542.8395</v>
+        <v>542.83950000000004</v>
       </c>
       <c r="C266" s="2">
         <v>45325</v>
@@ -15346,12 +15367,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:16">
+    <row r="267" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>281</v>
       </c>
       <c r="B267">
-        <v>49570.5315</v>
+        <v>49570.531499999997</v>
       </c>
       <c r="C267" s="2">
         <v>45305</v>
@@ -15396,12 +15417,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:16">
+    <row r="268" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>282</v>
       </c>
       <c r="B268">
-        <v>39190.452</v>
+        <v>39190.451999999997</v>
       </c>
       <c r="C268" s="2">
         <v>45317</v>
@@ -15410,7 +15431,7 @@
         <v>550</v>
       </c>
       <c r="E268">
-        <v>37324.24</v>
+        <v>37324.239999999998</v>
       </c>
       <c r="F268" s="2">
         <v>45312</v>
@@ -15446,7 +15467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:16">
+    <row r="269" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>283</v>
       </c>
@@ -15460,7 +15481,7 @@
         <v>551</v>
       </c>
       <c r="E269">
-        <v>17614.42</v>
+        <v>17614.419999999998</v>
       </c>
       <c r="F269" s="2">
         <v>45304</v>
